--- a/trunk/SMA - Software Measurement & Analysis/Assignment-10/K15T1-Team11-Team Assignment10/K15T1-Team11-Team Assignment10_Top_10_Risk.xlsx
+++ b/trunk/SMA - Software Measurement & Analysis/Assignment-10/K15T1-Team11-Team Assignment10/K15T1-Team11-Team Assignment10_Top_10_Risk.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Risk and Description</t>
   </si>
@@ -30,15 +30,6 @@
     <t xml:space="preserve">PM not monitor and control progress  </t>
   </si>
   <si>
-    <t xml:space="preserve">Architect design not exactly </t>
-  </si>
-  <si>
-    <t>Budget risk</t>
-  </si>
-  <si>
-    <t>Resource risk</t>
-  </si>
-  <si>
     <t>Likely</t>
   </si>
   <si>
@@ -48,18 +39,12 @@
     <t>Possible</t>
   </si>
   <si>
-    <t>Develop risk</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
     <t>Very High</t>
   </si>
   <si>
-    <t>Lack equipment for develop project</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -69,12 +54,6 @@
     <t>Type of risk</t>
   </si>
   <si>
-    <t>Enviroment effect performance of personel( Ex: conflict between some member)</t>
-  </si>
-  <si>
-    <t>People risk</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
@@ -84,44 +63,22 @@
     <t>Recommendation</t>
   </si>
   <si>
-    <t>The scope of the project is not clearly outlined</t>
-  </si>
-  <si>
-    <t>Scope risk</t>
-  </si>
-  <si>
     <t>Maket exchange when product deliverables</t>
   </si>
   <si>
-    <t>Vision risk</t>
-  </si>
-  <si>
     <t>Have vision far about trend future</t>
   </si>
   <si>
-    <t>You should have resources backup for your project</t>
-  </si>
-  <si>
     <t>Developer not skill for develop project and must retraining</t>
   </si>
   <si>
     <t>Prepare full skills for impliment project</t>
   </si>
   <si>
-    <t>This is mistake of PM, we need make
- method prevent</t>
-  </si>
-  <si>
     <t xml:space="preserve">Must analysis clearly all requiments and review period design </t>
   </si>
   <si>
     <t>You must define resource before implement project</t>
-  </si>
-  <si>
-    <t>Create enviroment communication for team member of project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define clearly outlined with customer </t>
   </si>
   <si>
     <t>Task does not obvious</t>
@@ -165,6 +122,55 @@
   </si>
   <si>
     <t xml:space="preserve">Architect design do not exactly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis all requiments then design. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope </t>
+  </si>
+  <si>
+    <t>The scope do not clearly outlined</t>
+  </si>
+  <si>
+    <t>Define clearly outlined with customer.</t>
+  </si>
+  <si>
+    <t>Lack equipment</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource </t>
+  </si>
+  <si>
+    <t>Resource r</t>
+  </si>
+  <si>
+    <t>Enviroment effect performance of personel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People </t>
+  </si>
+  <si>
+    <t>Create enviroment communication for team member of project.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>You should have resources backup for your project.</t>
+  </si>
+  <si>
+    <t>This is mistake of project manager, we need make
+ method prevent.</t>
   </si>
 </sst>
 </file>
@@ -527,398 +533,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
